--- a/sputnik/personal/ee/258ee.xlsx
+++ b/sputnik/personal/ee/258ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,12 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -45,7 +39,16 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>с 01.01.2019</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
   </si>
 </sst>
 </file>
@@ -53,7 +56,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -95,7 +98,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -125,19 +128,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -150,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -163,29 +153,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -501,10 +483,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:F11"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -515,31 +497,37 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
+      <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -555,6 +543,8 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -567,32 +557,28 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>0</v>
-      </c>
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="16">
-        <v>4.57</v>
-      </c>
+      <c r="E4" s="12"/>
       <c r="F4" s="6"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18" t="s">
-        <v>1</v>
-      </c>
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="16">
-        <v>2.39</v>
-      </c>
+      <c r="E5" s="12"/>
       <c r="F5" s="6"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -601,6 +587,8 @@
       <c r="D6" s="3"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -609,6 +597,8 @@
       <c r="D7" s="3"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -617,6 +607,8 @@
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
@@ -625,8 +617,9 @@
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -634,16 +627,20 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="16"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="6"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="16"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="6"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
@@ -652,6 +649,8 @@
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -660,6 +659,8 @@
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
@@ -668,6 +669,8 @@
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
@@ -676,6 +679,8 @@
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
@@ -684,78 +689,18 @@
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/258ee.xlsx
+++ b/sputnik/personal/ee/258ee.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -140,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -168,12 +168,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -486,7 +480,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -561,21 +555,45 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="A4" s="4">
+        <v>44092</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>530</v>
+      </c>
+      <c r="D4" s="3">
+        <f>SUM(C4,-C2)</f>
+        <v>11</v>
+      </c>
+      <c r="E4" s="12">
+        <v>4.71</v>
+      </c>
+      <c r="F4" s="6">
+        <f>PRODUCT(D4,E4)</f>
+        <v>51.81</v>
+      </c>
+      <c r="G4" s="2">
+        <v>51.81</v>
+      </c>
+      <c r="H4" s="2">
+        <v>96.5</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>220</v>
+      </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="12"/>
+      <c r="E5" s="12">
+        <v>2.5499999999999998</v>
+      </c>
       <c r="F5" s="6"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>

--- a/sputnik/personal/ee/258ee.xlsx
+++ b/sputnik/personal/ee/258ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -140,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -170,6 +170,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -477,10 +478,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -599,22 +600,53 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="A6" s="4">
+        <v>44455</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>664</v>
+      </c>
+      <c r="D6" s="3">
+        <f>SUM(C6,-C4)</f>
+        <v>134</v>
+      </c>
+      <c r="E6" s="12">
+        <v>4.96</v>
+      </c>
+      <c r="F6" s="6">
+        <f>PRODUCT(D6,E6)</f>
+        <v>664.64</v>
+      </c>
+      <c r="G6" s="13">
+        <f>SUM(F6,F7)</f>
+        <v>849.56</v>
+      </c>
+      <c r="H6" s="2">
+        <v>849.56</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>289</v>
+      </c>
+      <c r="D7" s="3">
+        <f>SUM(C7,-C5)</f>
+        <v>69</v>
+      </c>
+      <c r="E7" s="12">
+        <v>2.68</v>
+      </c>
+      <c r="F7" s="6">
+        <f>PRODUCT(D7,E7)</f>
+        <v>184.92000000000002</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
@@ -636,16 +668,14 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="12"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -655,17 +685,19 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="12"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="6"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="6"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -675,7 +707,7 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="6"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="6"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -691,7 +723,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -701,7 +733,7 @@
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -710,15 +742,35 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
